--- a/October 2018/Weekend_Weekday/Validation/Valid_October2018(2Periods).xlsx
+++ b/October 2018/Weekend_Weekday/Validation/Valid_October2018(2Periods).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\October 2018\Weekend_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11E9A62-A5ED-409F-AD98-39A3C2A7EB8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0653E1-B09A-4085-9939-777F00164F18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{F1808D77-A1B5-4BAB-B355-44F69B4DFAC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{4A4853AB-CB0F-4A56-8597-E19CF5AA0F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAAFB8F-C2C1-4008-BB01-AA063EA31A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18A3B0-0AE6-49B4-9633-E9FA6300B95F}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1838,65 +1838,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{572F68B1-0342-4CDA-BFB6-88D25790C4FE}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{25D8DB87-4772-48AE-969A-FA7F5E750328}"/>
-    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{6BB6BDC1-36C3-45AD-8AA0-1EEF114C78E9}"/>
-    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{7AF4FA75-8DDE-4344-9F50-C6BACACEB68A}"/>
-    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{DA0D3DE5-147A-4EA2-B933-A9B3E6D8FD31}"/>
-    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{DE039861-7615-4188-8EA5-C0507D8F4187}"/>
-    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{4E5FCBD2-721B-4AA1-8BE6-7FAFCFF7C265}"/>
-    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{86288D00-7A85-4D13-892C-9D76555C7DD4}"/>
-    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{613BED81-7F24-4167-AF4D-2F08627DC045}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{0C10FA2B-F6C0-4540-92A5-8D268F265042}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{A370A275-E330-4528-B1EF-3490B0540029}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{C49A8526-4708-4685-BA92-26F8D0C35C96}"/>
-    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{8D0CC30E-6FEC-44A6-96C1-BCBC8B6A3281}"/>
-    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{3929EFAB-CEA8-4953-BBF9-311FE8CA2F60}"/>
-    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{29D50351-EAC9-4D4F-B36A-F91262E577BA}"/>
-    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{77F28282-4870-4361-A5E1-99DC41FC62F1}"/>
-    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{7BB54EDF-5762-4ED4-9263-B16868282458}"/>
-    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{787A99A0-8ED4-4529-B805-B6D728091CF1}"/>
-    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{9E311E88-A2B9-4185-A2E9-B5FD37482ECD}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{79555F37-1ABB-47B7-9BA8-8E04B6DBEA6E}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{11AF5568-09AC-498E-85CB-C416885B4E2D}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{0BFE6BEC-E770-4DFA-8CF9-5C29517DD72C}"/>
-    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{F558A714-5C4C-480E-B1C6-F55D9571DC74}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{E7E4A49D-1B9C-40E4-A0C4-95F7C41C9A67}"/>
-    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{608DA0EE-7B4B-44C7-AD3A-4B01AFC2D083}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{C703C5E9-2A1C-4285-9297-45EBAE8E6612}"/>
-    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{58C815BB-E431-48E2-AE9C-31B435947565}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{95858AAF-5B6F-406B-987E-0117FEC3730A}"/>
-    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{D960B65C-37A6-4602-8083-099C8407585C}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{16ED6298-CB0A-4655-96A5-F2BE5CB09BD3}"/>
-    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{028F2901-30C5-4ABD-8FF5-DD1B8B400BA8}"/>
-    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{58C37AD8-ECC4-4B78-AD49-3D54C8C79663}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{B01767D9-CE13-4D91-A951-3278FC6F1F3C}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{68001B0B-7A77-44DD-A8F0-F8944031DE78}"/>
-    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{C8B0FAF4-89E3-488D-A732-71865FC00423}"/>
-    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{52B295E9-FA88-4D75-9B14-EA57A1B6770D}"/>
-    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{9AA92165-A4A5-4AF7-A96A-2984AD20B513}"/>
-    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{80A13275-F963-4CA9-841B-FF16E3D82407}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{B7C81232-2F85-44B6-A807-4B7A58FCAFB9}"/>
-    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{B69BBA90-D20C-4A95-962C-C6C2BAA92976}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{886F28DD-F996-4EFC-AF12-0A62D996CC65}"/>
-    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{239361AC-45DE-43DA-BB7E-FE3A00BB4E82}"/>
-    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{11A1F905-8047-4308-9043-12D71A339C8C}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{6667196A-7A2B-4C71-AE1F-FF11CBC379E3}"/>
-    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{65EAB783-DE67-4EBA-864E-A8B6590C9526}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{FFF07C67-3171-4F8B-9166-C8ACA169763C}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{1F95800A-3887-4569-89EF-D0063F64B63F}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{528D11A6-0811-4F59-A80D-BC530B741E01}"/>
-    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{D1D50249-0907-42ED-9B6D-05AA37BD4DCD}"/>
-    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{8A33AC13-C941-4143-A31A-BC53963ED5AD}"/>
-    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{063984B6-96E3-4295-87E7-8B0AF3C80139}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{D8C7F1D7-B480-4AE1-86DF-CE962D3CB7BC}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{228871A6-9DBC-4983-947B-6D91E3A8E2DE}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{2792DEE5-C327-404C-8798-DDECCFE9CB92}"/>
+    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{D8F82B0A-0AF9-4E77-B309-3A08517F40BC}"/>
+    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{70E5DF0F-E36C-4A74-9EED-ED6D59ECF853}"/>
+    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{BBC738C3-3CE4-4450-B25D-168CB401679A}"/>
+    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{113AB030-FE5A-4DFD-9CFE-39E60DDE00F7}"/>
+    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{8FCB103D-B832-422D-AB82-06839CF32DE9}"/>
+    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{C72453B4-765D-4BF0-983A-164CBEADE40A}"/>
+    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{D92582F1-B775-4AB1-8B41-78547F69F249}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{02DF2DC2-DAC6-4CCB-A217-B6CCE7DA4D53}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{C16BB756-152C-472F-A052-6A842F92B62E}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{DC187011-D85C-46A2-9FE1-5F43631489D1}"/>
+    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{C34A4A76-75E3-4DB4-83C3-729D2DB01FFC}"/>
+    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{3B51837F-6C80-4DC5-A20B-5CCB52315FE8}"/>
+    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{B667EC8B-6020-4E23-BB81-E26FF46A3740}"/>
+    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{4B50BC94-6CB4-45FC-854B-DB657245BFC4}"/>
+    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{B111A552-1648-4224-AF26-84E4DAFA8E92}"/>
+    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{46E38056-207F-4F17-9FB5-8DEC2BDC423F}"/>
+    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{44BFBF8A-941E-447B-A0F0-2C8125EF7501}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{3F707E8C-D59A-48BD-954F-CE3DC7504E4A}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{44D43EAD-8117-4EB2-B4AF-EE16C33B6F7F}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{1CA8D9D0-1574-441C-BF63-D4582D5419B6}"/>
+    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{53FAF1DF-EF3E-47B4-94C0-98DC8E850973}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{0F70A962-067E-459A-ABA3-B2A765AE039D}"/>
+    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{01EE733D-A872-43EA-A4B9-4C4C14429BE1}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{E3FC0837-8805-4C70-9626-0F5E6EDBACE2}"/>
+    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{47CFBC62-F25A-41CA-A79D-FF399C522B39}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{B8877CF6-D9CA-4C63-8063-3D441B0F8DF3}"/>
+    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{94213905-33AF-444D-992A-C9F35B304BA1}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{2DB65E70-D3DB-49FB-ACC2-90594B3BE767}"/>
+    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{022C3311-1813-4DAE-88F1-DD4479819E46}"/>
+    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{3B8441A4-904F-4AC1-B90C-851BCE3B80B7}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{34A91FF1-6814-45FC-AFE4-742411D098B0}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{632A13C4-828D-45E1-A7D3-2711FBBD4E84}"/>
+    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{2FD1EA96-68DA-4C93-8370-0CB5A3ACE822}"/>
+    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{ED21E3D5-9DD9-4EA6-9BA8-35D9BE5C6C07}"/>
+    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{B89DDE09-6396-4971-B8C7-71AD984F091F}"/>
+    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{E9A822F0-AA39-4415-83B6-F329A7F29BCB}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{521AD1C6-2395-4C60-8356-ABBB5C9B6E79}"/>
+    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{E7A375DE-70A2-45C5-8F91-87EAEDE99175}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{35FDFA7B-8129-4B80-8753-0E11D8DAD31A}"/>
+    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{C5A1BC88-AB68-45D0-892E-FD97A49F9F9E}"/>
+    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{29001494-A078-423E-9436-7EAD0B6932D9}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{0C1DD1FD-DA2C-46FD-A9B4-48C42AD370DA}"/>
+    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{1EA859FA-6A4F-4E8A-8193-B70FEF53F798}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{20EE2B0B-A962-47FB-8732-E7855FAA2F41}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{21E2B25F-7462-4E1D-8BC6-E4D4FEA10EE2}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{1F2D8905-0705-4785-AE30-588AF58ECEC0}"/>
+    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{2EDA1773-1F17-42C9-B846-2742522E9452}"/>
+    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{AC4DA301-77DD-4514-A76B-36ACC6ADDC1E}"/>
+    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{691AB9C5-F515-4E13-9270-1E3F887DE9F5}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{AEED30A1-E1EC-4316-82BD-79BA33F4AC5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23533831-C6B7-4002-A96F-82E74CF854E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B24DD7-96D1-4385-81C1-99A6F7999CFC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,16 +1974,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{E1430AF4-9D59-424C-AB6B-ECB1E1431DEE}"/>
+  <autoFilter ref="A3:E5" xr:uid="{75EEEF79-8165-4A08-AFBA-9B4A65806F12}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{568B03C3-C43A-4BFD-8FC1-027E7144873E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B3102C28-58EE-4143-806D-3F1CFEADEC9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A054CE-07EA-4086-871B-D0274D35E68D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293881E-8F56-4280-81C4-2462FE44E458}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2040,7 +2040,7 @@
         <v>3000.7600440000001</v>
       </c>
       <c r="E4">
-        <v>377.36</v>
+        <v>377.512</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2057,20 +2057,20 @@
         <v>6001.5200880000002</v>
       </c>
       <c r="E5">
-        <v>377.36</v>
+        <v>377.512</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{3F849A57-C1DD-4BD4-B49D-C0EA9059BDF8}"/>
+  <autoFilter ref="A3:E5" xr:uid="{1B288525-82B2-45BF-B68F-38DE90849D74}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{653C9995-C68B-4C7F-8F9C-A6B720029687}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{89CF0858-5018-41E2-A502-9500A7D24E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6383754-A7CA-44ED-BB9A-557DE01CEFFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068C24-2C50-4A95-8ACD-F0EC1BC05877}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,7 +2127,7 @@
         <v>2636.8475600000002</v>
       </c>
       <c r="E4">
-        <v>1084.9100000000001</v>
+        <v>1085.347</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2144,20 +2144,20 @@
         <v>6946.1881199999998</v>
       </c>
       <c r="E5">
-        <v>1500.52</v>
+        <v>1500.0139999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{D94AE3AF-EC86-49FA-8F27-1EA835EE6A91}"/>
+  <autoFilter ref="A3:E5" xr:uid="{CBC5D6FF-33FE-49C8-BA60-4C25A09B0281}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{949FDC2C-2C96-4248-AF82-1F1BEEE29B4D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{765A43F1-7D67-4A75-A43F-0EA7331D8DDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47C78E-B3E4-46B8-8E17-08DCB7E3A282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2932F28B-C4CC-488A-9F8C-809FBB249F44}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2196,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>3592.15</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2204,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>3592.04</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2212,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>3591.91</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2220,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>3591.78</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2228,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>3591.71</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2236,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>3591.64</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>3591.71</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>3591.79</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2260,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>3591.8</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2268,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>3591.85</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2276,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>3591.96</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>3591.9</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>3591.88</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2300,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>3591.87</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>3591.74</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2316,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>3591.64</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2324,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>3591.61</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2332,7 +2332,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>3591.59</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2340,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>3591.5</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2348,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>3591.45</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2356,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>3591.42</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2364,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>3591.39</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2372,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>3591.24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2380,7 +2380,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3591.15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2388,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>3591.07</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2396,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>3590.96</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>3590.85</v>
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>3590.78</v>
+        <v>977</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2420,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>3590.67</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>3590.57</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2436,20 +2436,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>3590.46</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{56630A9F-A948-400A-98A9-28153F8EA233}"/>
+  <autoFilter ref="A3:B34" xr:uid="{42D2C451-4D3D-46E9-8E1B-58EC718AAF16}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9BC2D1DC-02C9-4A1C-9929-0C5306B604DB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3757AB2E-87F7-4A00-99F7-DDFF15A36E8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9C91D4-0D15-4C73-A90C-FD5CF7843095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5952D4-5CB1-4DD9-8E73-DDB278A003C3}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2488,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>986</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>986</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2504,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>985</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2512,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>984</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2520,7 +2520,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>983</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2528,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>983</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>983</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>984</v>
+        <v>14844</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2552,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>984</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>984</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>16356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>985</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2584,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>985</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2592,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>984</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2600,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>984</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>983</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2616,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>983</v>
+        <v>9247</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2624,7 +2624,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>983</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>982</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2640,7 +2640,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>982</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>981</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2656,7 +2656,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>981</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>980</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2672,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>980</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2680,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>979</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2688,7 +2688,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>978</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2696,7 +2696,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>978</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2704,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>977</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2712,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>976</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>976</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2728,20 +2728,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>975</v>
+        <v>5572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{AA511BF0-2613-4552-BC22-6285AE9EFD06}"/>
+  <autoFilter ref="A3:B34" xr:uid="{D47165C3-89B7-4A10-A784-4494DA93E187}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DBAA7F90-05C8-4E8B-B4AA-84E9B73B0CB5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{82503F00-ADF4-4F14-9566-ED5E30736C9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8D930-1C7F-4326-A4DF-6CED882C5C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB92D278-391D-4CA8-9B0F-511024A91054}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{2D5A749E-1F43-4E82-999A-95044387D046}"/>
+  <autoFilter ref="A3:B5" xr:uid="{40DC31BB-AFB8-42D2-8AB7-8484A871C5D3}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{355B5B22-03E5-42EE-BC36-4AD3F84D0C16}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FFB7AE54-1C45-439E-BFEA-36FAA6CB6907}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3C9869-0277-40C1-9D83-152CF915F1FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26351ECE-1B67-4394-B053-2B2F65096C36}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2849,16 +2849,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{85B12620-2A9B-46D6-AB62-4FBB05BE03F2}"/>
+  <autoFilter ref="A3:A5" xr:uid="{60CC2CB7-0FE2-4D5D-8583-1CB4003E4C48}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DB8AF837-ACED-45E2-8E72-DC1813715734}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C1C28097-E9A6-4792-BEA4-1D45C4DCFBA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC013898-7537-4098-A0ED-26EDEF3963B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F06BB1B-0D2F-4196-B1B6-F7DE0C9CF385}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2906,16 +2906,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{9EFFED91-2AD7-43FB-9176-9FCCEB6D6EE7}"/>
+  <autoFilter ref="A3:A5" xr:uid="{0F9F9A4C-C050-4D76-B5C2-C3E86C0F7F86}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A6464BAD-E33F-473B-90D5-D8EA60DCA0DB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AA94F87C-72D1-4A35-A413-AF2A65A4DAAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78864EB-DAA2-44D6-A49E-A411871EEE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D92AB4-647E-4A2A-A960-0DBA27A34902}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2966,16 +2966,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{2BA1EEAB-2EB4-43F7-BDE1-072AFFD49322}"/>
+  <autoFilter ref="A3:B5" xr:uid="{4492251A-70CE-49F6-9ACB-EC08E2956AFD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D793AB44-16B3-407D-B235-F3A6AF272CDE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C06A21E4-7AAD-4DC9-BE05-29BE2C157510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6996FD9-8164-4C04-9580-1CBC08BB2E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A220C70B-7D44-4580-A6E6-FE0A854DBAC9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3026,16 +3026,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{1CCB6FDC-BF69-4BD5-A511-47DC8DE082E4}"/>
+  <autoFilter ref="A3:B5" xr:uid="{ADC93D19-A9C2-4EA1-8FD2-32FD78036E33}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6F2B29EE-D92B-4600-8882-C057D4620CB5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3F2A148A-6146-4385-B3DE-A8C8215832F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7582A6A3-5C11-4BD9-923D-C98E0C74A331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC7FD46-6902-4B6A-B264-29F9ED0D9A1B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3085,7 +3085,7 @@
         <v>97</v>
       </c>
       <c r="B5">
-        <v>16680736.914753521</v>
+        <v>16679742.792528583</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -3162,7 +3162,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>10312220.804479999</v>
+        <v>10811543.460479999</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -3273,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>11076895.488</v>
+        <v>11495321.063999999</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -3293,7 +3293,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>16680736.914753521</v>
+        <v>16679742.792528583</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>10312220.804479999</v>
+        <v>10811543.460479999</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -3450,13 +3450,13 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>-111336.08000000002</v>
+        <v>-30439</v>
       </c>
       <c r="C32">
-        <v>-111336.08000000002</v>
+        <v>-30439</v>
       </c>
       <c r="D32">
-        <v>-111336.08000000002</v>
+        <v>-30439</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>8950000</v>
       </c>
       <c r="C33">
-        <v>10312220.804479999</v>
+        <v>10811543.460479999</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>10312220.804479999</v>
+        <v>10811543.460479999</v>
       </c>
       <c r="D34">
         <v>25000000</v>
@@ -3530,13 +3530,13 @@
         <v>152</v>
       </c>
       <c r="B36">
-        <v>11076895.488</v>
+        <v>11495321.063999999</v>
       </c>
       <c r="C36">
-        <v>11076895.488</v>
+        <v>11495321.063999999</v>
       </c>
       <c r="D36">
-        <v>11076895.488</v>
+        <v>11495321.063999999</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{03B23116-E950-4CF3-A3C6-A5979FB8E01F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9547D652-CB7D-44B3-93AA-64E318E49429}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF6B61F-C5F9-4BD2-8BE6-B5B025E7880D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14CDC73-02A7-4180-ADC6-09FE2C6FEDD3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3645,16 +3645,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{237C18EE-DBCF-4677-97AB-AEB520E8A904}"/>
+  <autoFilter ref="A3:B5" xr:uid="{E6223C92-702E-471C-AC4A-7470FC6C649E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A8F4EF99-88A0-47DC-9034-72142275721F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C20584EE-2792-42DA-B547-5312C944720F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5B40B9-8707-4CB5-880C-D6E5BE318683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490A9A-C819-46D5-9641-388FFA0EFFCB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3732,16 +3732,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{1C32CE24-0338-47F8-A18B-A9B7D2F3B5E0}"/>
+  <autoFilter ref="A3:E5" xr:uid="{EFC95871-40A2-4ADF-8F57-13F3B5944C44}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B8D5425B-CF62-4A18-9EB1-C4AA5203F645}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6ADDD495-F28D-40DA-BEC7-8742F9CAD574}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91B860F-09BB-4B0E-9D42-02FD2CCB11F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC604FB-70B5-4B0C-A5F1-DC57A6D2CD07}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>47.17</v>
+        <v>47.189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3788,20 +3788,20 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>47.17</v>
+        <v>47.189</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{0D0DDBAA-E422-453B-AD50-C8402DC0ACF9}"/>
+  <autoFilter ref="A3:B5" xr:uid="{FA93CEA6-B785-4883-8469-88F517C07E74}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F379F306-8D54-4F38-9AA7-D32FB6660906}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3B8DF3BC-47D5-413E-8212-890CFEFA199C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958402C5-94E5-4DD6-95C1-79FDF04FA403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9151A452-254F-4CC1-B65B-166F22AFDBCD}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3988,16 +3988,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A34" xr:uid="{3C4A8EE1-D32C-4C93-AB7B-D7F9F87D2C4D}"/>
+  <autoFilter ref="A3:A34" xr:uid="{5779FFD0-25F3-4AC9-A93C-9C8A4A96534D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B6B271BF-7862-47EB-B590-35FAE2EE5EBE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7BA10F1C-A820-4723-8CCE-4022CD103CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4061AD-1B8B-4E97-8399-28CF6FA9A07A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679A2EA-DBDA-48A4-86FD-884B6A081B67}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4048,16 +4048,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{69D007C6-BFF3-4E6A-9080-AC6128718419}"/>
+  <autoFilter ref="A3:B5" xr:uid="{F8F0C776-E175-4F89-A327-4A1FFA04302D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6EDC7A76-6052-425E-80BA-3CEA987E22A9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B3C04908-CDCD-401B-A402-E33C9404E163}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A018FAC3-335A-453A-9DC4-FB10F7045863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16CDA43-7F39-4C92-A767-7EBF814579E0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4096,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>47.17</v>
+        <v>47.189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4104,20 +4104,20 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>65.239999999999995</v>
+        <v>65.218000000000004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{D708E3D5-E8F7-4F07-827A-0CF6D326FEB8}"/>
+  <autoFilter ref="A3:B5" xr:uid="{EAA7A338-718A-4528-994B-1C1EB6D94587}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B5E4B2E9-7DC5-45A3-89DA-BEF50737CA72}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{89321F9A-3853-4014-863C-C408CE21F6C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52A8861-85C3-4CFA-B656-084B6BB4325A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A6E51-3BC3-4FF3-BA92-614311BFA6DD}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4195,16 +4195,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{36C2CA71-B7A8-42C0-963D-191CC2B3BDF4}"/>
+  <autoFilter ref="A3:E5" xr:uid="{F4061AFC-36B1-48CE-B578-EB849BBD06DE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C6A4BE42-2A4F-47E7-B7A0-0BBF3FD34B86}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C52980F3-D2EE-452A-9448-13F0CBF65A7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FBC3F7-7122-4627-8202-E571E8A7C7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44A1324-2175-47D0-857E-CC23F26C216B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4282,16 +4282,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{0E0CCCCE-FA22-4BBE-8E8F-686C31BB7220}"/>
+  <autoFilter ref="A3:E5" xr:uid="{91470996-5A28-46A0-904D-02ABB7C0AD8B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{99D5D118-6E06-4E6E-A6B7-019B07672D71}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{24FCA805-DE5D-470A-B1CF-ED4E2766ED0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9F40AB-3178-4826-A849-6F1130067610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0C6AB-6F6A-4BDC-88F8-094122E63E99}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4369,16 +4369,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{2F850BBA-527C-4A05-A9F1-9CDE803B4D7A}"/>
+  <autoFilter ref="A3:E5" xr:uid="{D374E362-8E68-409A-A935-DF81FE89FC89}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5E959C89-F272-4DDA-81CA-E022E52828C4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8A15AD47-91E2-4CC1-8CD0-DF87FF6E70AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0005724-7635-448C-B9EF-F341868E765A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D1F649-2186-444C-8229-83F216C2C223}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4456,9 +4456,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{AB3E886A-2233-4221-9624-CEA97304A98B}"/>
+  <autoFilter ref="A3:E5" xr:uid="{82AFD246-F3A2-4C74-821C-87746308D6CF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{17B0A29A-8AA9-4A8D-B06E-8C218E6CDC4D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C76C2FC8-A8CD-42F7-86A2-CCB9E8B20422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
